--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound3.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound3.xlsx
@@ -91,6 +91,24 @@
     <t>95th Percentile Score</t>
   </si>
   <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Herriman, UT</t>
+  </si>
+  <si>
+    <t>OGDC</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Germantown, MD</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
@@ -100,24 +118,6 @@
     <t>Quincy, MA</t>
   </si>
   <si>
-    <t>OGDC</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>Germantown, MD</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>Herriman, UT</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -127,6 +127,15 @@
     <t>San Diego, CA</t>
   </si>
   <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
     <t>HOU</t>
   </si>
   <si>
@@ -134,15 +143,6 @@
   </si>
   <si>
     <t>Houston, TX</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>Charlotte, NC</t>
   </si>
 </sst>
 </file>
@@ -159,30 +159,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC81A2E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC50A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,6 +182,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFC50A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC81A2E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -215,6 +215,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF99EAFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1E191A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,14 +246,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1E191A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -261,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF031E41"/>
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB98E2D"/>
+        <fgColor rgb="FF182A55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FF031E41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF182A55"/>
+        <fgColor rgb="FFB98E2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,6 +309,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1785C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AE94"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF020001"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,18 +328,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00AA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1785C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00AE94"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,13 +370,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,13 +385,13 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,27 +802,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="15">
-        <v>0.6110708694091269</v>
+        <v>0.612803029568906</v>
       </c>
       <c r="C3" s="15"/>
       <c r="E3" s="15">
-        <v>0.5418172374209531</v>
+        <v>0.5688024438107635</v>
       </c>
       <c r="F3" s="15"/>
       <c r="H3" s="15">
-        <v>0.66444282470501</v>
+        <v>0.588711737310206</v>
       </c>
       <c r="I3" s="15"/>
       <c r="K3" s="15">
-        <v>0.3960466240343603</v>
+        <v>0.4150760350510528</v>
       </c>
       <c r="L3" s="15"/>
       <c r="N3" s="15">
-        <v>0.655264449293349</v>
+        <v>0.3486407748609279</v>
       </c>
       <c r="O3" s="15"/>
       <c r="Q3" s="15">
-        <v>0.3033256029896143</v>
+        <v>0.6389788263607741</v>
       </c>
       <c r="R3" s="15"/>
     </row>
@@ -831,27 +831,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="15">
-        <v>0.9716048166514302</v>
+        <v>0.9923702621320346</v>
       </c>
       <c r="C4" s="15"/>
       <c r="E4" s="15">
-        <v>0.896715332444817</v>
+        <v>0.8900805786306384</v>
       </c>
       <c r="F4" s="15"/>
       <c r="H4" s="15">
-        <v>0.992891312280667</v>
+        <v>0.9700363097944565</v>
       </c>
       <c r="I4" s="15"/>
       <c r="K4" s="15">
-        <v>0.8920956221070903</v>
+        <v>0.8863683312257845</v>
       </c>
       <c r="L4" s="15"/>
       <c r="N4" s="15">
-        <v>0.5559484974287887</v>
+        <v>0.7816626487064793</v>
       </c>
       <c r="O4" s="15"/>
       <c r="Q4" s="15">
-        <v>0.7910451697555059</v>
+        <v>0.5360639206208345</v>
       </c>
       <c r="R4" s="15"/>
     </row>
@@ -860,27 +860,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="14">
-        <v>59.37194000332848</v>
+        <v>60.81275030886002</v>
       </c>
       <c r="C5" s="14"/>
       <c r="E5" s="14">
-        <v>48.58558241782624</v>
+        <v>50.62800083136056</v>
       </c>
       <c r="F5" s="14"/>
       <c r="H5" s="14">
-        <v>65.97195081568306</v>
+        <v>57.10717611930757</v>
       </c>
       <c r="I5" s="14"/>
       <c r="K5" s="14">
-        <v>35.33114594513455</v>
+        <v>36.79102525200169</v>
       </c>
       <c r="L5" s="14"/>
       <c r="N5" s="14">
-        <v>36.42932860031401</v>
+        <v>27.25194715248723</v>
       </c>
       <c r="O5" s="14"/>
       <c r="Q5" s="14">
-        <v>23.99442531081106</v>
+        <v>34.2533494852656</v>
       </c>
       <c r="R5" s="14"/>
     </row>
@@ -889,40 +889,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="16">
-        <v>0.5988751</v>
+        <v>0.4362572</v>
       </c>
       <c r="C6" s="16">
-        <v>0.4011249</v>
+        <v>0.536179</v>
       </c>
       <c r="E6" s="16">
-        <v>0.6869037</v>
+        <v>0.6732274</v>
       </c>
       <c r="F6" s="16">
-        <v>0.3130963</v>
+        <v>0.2987194</v>
       </c>
       <c r="H6" s="16">
-        <v>0.4504053</v>
+        <v>0.5865992</v>
       </c>
       <c r="I6" s="16">
-        <v>0.5495947</v>
+        <v>0.388546</v>
       </c>
       <c r="K6" s="16">
-        <v>0.6909312</v>
+        <v>0.6798888</v>
       </c>
       <c r="L6" s="16">
-        <v>0.3090688</v>
+        <v>0.2972482</v>
       </c>
       <c r="N6" s="16">
-        <v>0.8705425</v>
+        <v>0.2275254</v>
       </c>
       <c r="O6" s="16">
-        <v>0.1294575</v>
+        <v>0.7527442</v>
       </c>
       <c r="Q6" s="16">
-        <v>0.2376112</v>
+        <v>0.8616470000000001</v>
       </c>
       <c r="R6" s="16">
-        <v>0.7623888</v>
+        <v>0.1201134</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -930,40 +930,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="17">
-        <v>28.5701978</v>
+        <v>20.4821768</v>
       </c>
       <c r="C7" s="17">
-        <v>24.0010814</v>
+        <v>22.262488</v>
       </c>
       <c r="E7" s="17">
-        <v>24.8036298</v>
+        <v>24.8067934</v>
       </c>
       <c r="F7" s="17">
-        <v>17.1704952</v>
+        <v>17.1647528</v>
       </c>
       <c r="H7" s="17">
-        <v>20.4830308</v>
+        <v>28.576303</v>
       </c>
       <c r="I7" s="17">
-        <v>22.2539972</v>
+        <v>23.9993514</v>
       </c>
       <c r="K7" s="17">
-        <v>28.6783532</v>
+        <v>28.6725898</v>
       </c>
       <c r="L7" s="17">
-        <v>20.518239</v>
+        <v>20.5079534</v>
       </c>
       <c r="N7" s="17">
-        <v>27.2821592</v>
+        <v>24.6066474</v>
       </c>
       <c r="O7" s="17">
-        <v>11.3608398</v>
+        <v>38.1508418</v>
       </c>
       <c r="Q7" s="17">
-        <v>24.6151158</v>
+        <v>27.2956808</v>
       </c>
       <c r="R7" s="17">
-        <v>38.1449058</v>
+        <v>11.362897</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -971,10 +971,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="17">
         <v>7</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" s="17">
         <v>10</v>
@@ -995,16 +995,16 @@
         <v>6</v>
       </c>
       <c r="N8" s="17">
+        <v>7</v>
+      </c>
+      <c r="O8" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="17">
         <v>9</v>
       </c>
-      <c r="O8" s="17">
+      <c r="R8" s="17">
         <v>0</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>7</v>
-      </c>
-      <c r="R8" s="17">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1012,10 +1012,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
@@ -1024,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I9" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" s="17">
         <v>13</v>
@@ -1036,16 +1036,16 @@
         <v>8</v>
       </c>
       <c r="N9" s="17">
+        <v>10</v>
+      </c>
+      <c r="O9" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="17">
         <v>13</v>
       </c>
-      <c r="O9" s="17">
+      <c r="R9" s="17">
         <v>3</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>10</v>
-      </c>
-      <c r="R9" s="17">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1053,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="17">
         <v>12</v>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10" s="17">
         <v>12</v>
@@ -1077,16 +1077,16 @@
         <v>10</v>
       </c>
       <c r="N10" s="17">
+        <v>12</v>
+      </c>
+      <c r="O10" s="17">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="17">
         <v>14</v>
       </c>
-      <c r="O10" s="17">
+      <c r="R10" s="17">
         <v>3</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>12</v>
-      </c>
-      <c r="R10" s="17">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1094,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="17">
         <v>14</v>
@@ -1106,10 +1106,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I11" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="17">
         <v>18</v>
@@ -1118,16 +1118,16 @@
         <v>12</v>
       </c>
       <c r="N11" s="17">
+        <v>15</v>
+      </c>
+      <c r="O11" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="17">
         <v>16</v>
       </c>
-      <c r="O11" s="17">
+      <c r="R11" s="17">
         <v>5</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>15</v>
-      </c>
-      <c r="R11" s="17">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" s="17">
         <v>15</v>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="17">
         <v>15</v>
@@ -1159,16 +1159,16 @@
         <v>13</v>
       </c>
       <c r="N12" s="17">
+        <v>16</v>
+      </c>
+      <c r="O12" s="17">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="17">
         <v>19</v>
       </c>
-      <c r="O12" s="17">
+      <c r="R12" s="17">
         <v>6</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>16</v>
-      </c>
-      <c r="R12" s="17">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1176,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="17">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="17">
         <v>17</v>
@@ -1188,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I13" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="17">
         <v>21</v>
@@ -1200,16 +1200,16 @@
         <v>14</v>
       </c>
       <c r="N13" s="17">
+        <v>17</v>
+      </c>
+      <c r="O13" s="17">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="17">
         <v>20</v>
       </c>
-      <c r="O13" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>17</v>
-      </c>
       <c r="R13" s="17">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1217,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="17">
         <v>20</v>
@@ -1229,10 +1229,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I14" s="17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="17">
         <v>23</v>
@@ -1241,16 +1241,16 @@
         <v>16</v>
       </c>
       <c r="N14" s="17">
+        <v>19</v>
+      </c>
+      <c r="O14" s="17">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="17">
         <v>22</v>
       </c>
-      <c r="O14" s="17">
+      <c r="R14" s="17">
         <v>8</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>19</v>
-      </c>
-      <c r="R14" s="17">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1258,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="17">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="17">
         <v>20</v>
@@ -1270,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="17">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I15" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" s="17">
         <v>24</v>
@@ -1282,16 +1282,16 @@
         <v>17</v>
       </c>
       <c r="N15" s="17">
+        <v>20</v>
+      </c>
+      <c r="O15" s="17">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="17">
         <v>23</v>
       </c>
-      <c r="O15" s="17">
+      <c r="R15" s="17">
         <v>9</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>20</v>
-      </c>
-      <c r="R15" s="17">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1299,10 +1299,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="17">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C16" s="17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="17">
         <v>23</v>
@@ -1311,10 +1311,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="17">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I16" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" s="17">
         <v>26</v>
@@ -1323,16 +1323,16 @@
         <v>18</v>
       </c>
       <c r="N16" s="17">
+        <v>22</v>
+      </c>
+      <c r="O16" s="17">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="17">
         <v>24</v>
       </c>
-      <c r="O16" s="17">
+      <c r="R16" s="17">
         <v>10</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>22</v>
-      </c>
-      <c r="R16" s="17">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1340,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" s="17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="17">
         <v>24</v>
@@ -1352,10 +1352,10 @@
         <v>16</v>
       </c>
       <c r="H17" s="17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I17" s="17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="17">
         <v>28</v>
@@ -1364,16 +1364,16 @@
         <v>20</v>
       </c>
       <c r="N17" s="17">
+        <v>24</v>
+      </c>
+      <c r="O17" s="17">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="17">
         <v>26</v>
       </c>
-      <c r="O17" s="17">
+      <c r="R17" s="17">
         <v>10</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>24</v>
-      </c>
-      <c r="R17" s="17">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1381,10 +1381,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="17">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" s="17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="17">
         <v>26</v>
@@ -1393,10 +1393,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="17">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I18" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="17">
         <v>29</v>
@@ -1405,16 +1405,16 @@
         <v>21</v>
       </c>
       <c r="N18" s="17">
+        <v>25</v>
+      </c>
+      <c r="O18" s="17">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="17">
         <v>27</v>
       </c>
-      <c r="O18" s="17">
+      <c r="R18" s="17">
         <v>11</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>25</v>
-      </c>
-      <c r="R18" s="17">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1422,10 +1422,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="17">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" s="17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="17">
         <v>27</v>
@@ -1434,10 +1434,10 @@
         <v>19</v>
       </c>
       <c r="H19" s="17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I19" s="17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K19" s="17">
         <v>31</v>
@@ -1446,16 +1446,16 @@
         <v>22</v>
       </c>
       <c r="N19" s="17">
+        <v>27</v>
+      </c>
+      <c r="O19" s="17">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="17">
         <v>30</v>
       </c>
-      <c r="O19" s="17">
+      <c r="R19" s="17">
         <v>13</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>27</v>
-      </c>
-      <c r="R19" s="17">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1463,10 +1463,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="17">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C20" s="17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="17">
         <v>28</v>
@@ -1475,10 +1475,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="17">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I20" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="17">
         <v>33</v>
@@ -1487,16 +1487,16 @@
         <v>24</v>
       </c>
       <c r="N20" s="17">
+        <v>28</v>
+      </c>
+      <c r="O20" s="17">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="17">
         <v>31</v>
       </c>
-      <c r="O20" s="17">
+      <c r="R20" s="17">
         <v>13</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>28</v>
-      </c>
-      <c r="R20" s="17">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1504,10 +1504,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C21" s="17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="17">
         <v>30</v>
@@ -1516,10 +1516,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I21" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K21" s="17">
         <v>34</v>
@@ -1528,16 +1528,16 @@
         <v>25</v>
       </c>
       <c r="N21" s="17">
+        <v>30</v>
+      </c>
+      <c r="O21" s="17">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="17">
         <v>33</v>
       </c>
-      <c r="O21" s="17">
+      <c r="R21" s="17">
         <v>15</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>30</v>
-      </c>
-      <c r="R21" s="17">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1545,10 +1545,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="17">
         <v>33</v>
@@ -1557,10 +1557,10 @@
         <v>23</v>
       </c>
       <c r="H22" s="17">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I22" s="17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K22" s="17">
         <v>37</v>
@@ -1569,16 +1569,16 @@
         <v>27</v>
       </c>
       <c r="N22" s="17">
+        <v>32</v>
+      </c>
+      <c r="O22" s="17">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="17">
         <v>35</v>
       </c>
-      <c r="O22" s="17">
+      <c r="R22" s="17">
         <v>16</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>32</v>
-      </c>
-      <c r="R22" s="17">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1586,10 +1586,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="17">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C23" s="17">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" s="17">
         <v>34</v>
@@ -1598,10 +1598,10 @@
         <v>25</v>
       </c>
       <c r="H23" s="17">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I23" s="17">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K23" s="17">
         <v>39</v>
@@ -1610,16 +1610,16 @@
         <v>29</v>
       </c>
       <c r="N23" s="17">
+        <v>34</v>
+      </c>
+      <c r="O23" s="17">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="17">
         <v>37</v>
       </c>
-      <c r="O23" s="17">
+      <c r="R23" s="17">
         <v>17</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>34</v>
-      </c>
-      <c r="R23" s="17">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1627,10 +1627,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="17">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C24" s="17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" s="17">
         <v>37</v>
@@ -1639,10 +1639,10 @@
         <v>27</v>
       </c>
       <c r="H24" s="17">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I24" s="17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K24" s="17">
         <v>42</v>
@@ -1651,16 +1651,16 @@
         <v>31</v>
       </c>
       <c r="N24" s="17">
+        <v>37</v>
+      </c>
+      <c r="O24" s="17">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="17">
         <v>40</v>
       </c>
-      <c r="O24" s="17">
+      <c r="R24" s="17">
         <v>19</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>37</v>
-      </c>
-      <c r="R24" s="17">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1668,10 +1668,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="17">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C25" s="17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="17">
         <v>41</v>
@@ -1680,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="17">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I25" s="17">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K25" s="17">
         <v>45</v>
@@ -1692,16 +1692,16 @@
         <v>34</v>
       </c>
       <c r="N25" s="17">
+        <v>40</v>
+      </c>
+      <c r="O25" s="17">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="17">
         <v>44</v>
       </c>
-      <c r="O25" s="17">
+      <c r="R25" s="17">
         <v>21</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>40</v>
-      </c>
-      <c r="R25" s="17">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1709,10 +1709,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="17">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C26" s="17">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E26" s="17">
         <v>47</v>
@@ -1721,10 +1721,10 @@
         <v>34</v>
       </c>
       <c r="H26" s="17">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I26" s="17">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K26" s="17">
         <v>51</v>
@@ -1733,16 +1733,16 @@
         <v>39</v>
       </c>
       <c r="N26" s="17">
+        <v>46</v>
+      </c>
+      <c r="O26" s="17">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="17">
         <v>50</v>
       </c>
-      <c r="O26" s="17">
+      <c r="R26" s="17">
         <v>25</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>46</v>
-      </c>
-      <c r="R26" s="17">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
